--- a/Code/Results/Cases/Case_2_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_119/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.032463422135663</v>
+        <v>0.347730641930184</v>
       </c>
       <c r="C2">
-        <v>0.2239603850842542</v>
+        <v>0.06767891441089091</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.374633540282318</v>
+        <v>0.4143064095259632</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.5348721506566818</v>
+        <v>0.6351006585564392</v>
       </c>
       <c r="H2">
-        <v>0.3934625773948426</v>
+        <v>0.7402179449673838</v>
       </c>
       <c r="I2">
-        <v>0.3417081278793894</v>
+        <v>0.5824378794838729</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.212179785656559</v>
+        <v>0.3881189099243443</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8957204396347436</v>
+        <v>0.3074721832826981</v>
       </c>
       <c r="C3">
-        <v>0.1940672612594057</v>
+        <v>0.05895372407800892</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.179289431924289</v>
+        <v>0.3614587690521915</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.5091897371893594</v>
+        <v>0.6350068731898375</v>
       </c>
       <c r="H3">
-        <v>0.3909006038683032</v>
+        <v>0.7455245927634166</v>
       </c>
       <c r="I3">
-        <v>0.3431686047778513</v>
+        <v>0.5879938798843796</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.05126110589768</v>
+        <v>0.3408481337984881</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.81220995276297</v>
+        <v>0.2827769100592263</v>
       </c>
       <c r="C4">
-        <v>0.175899577658555</v>
+        <v>0.05358639945231403</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.061734756116849</v>
+        <v>0.3291050374318303</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.4954229728963924</v>
+        <v>0.6355336757560366</v>
       </c>
       <c r="H4">
-        <v>0.3904413766603909</v>
+        <v>0.7492282096347935</v>
       </c>
       <c r="I4">
-        <v>0.3452445279257184</v>
+        <v>0.5918251646278136</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.953090222783544</v>
+        <v>0.311831940487906</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7782677176324171</v>
+        <v>0.2727195437841772</v>
       </c>
       <c r="C5">
-        <v>0.168534256252812</v>
+        <v>0.05139655236725105</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.014338181239395</v>
+        <v>0.3159426302232475</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.4902773994066365</v>
+        <v>0.6358944618867213</v>
       </c>
       <c r="H5">
-        <v>0.3905169521281238</v>
+        <v>0.7508491611921642</v>
       </c>
       <c r="I5">
-        <v>0.346368372762349</v>
+        <v>0.5934916489649567</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.9132115365520406</v>
+        <v>0.3000097636492853</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7726363355939441</v>
+        <v>0.2710499046047801</v>
       </c>
       <c r="C6">
-        <v>0.1673133108364908</v>
+        <v>0.05103276892708664</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.006496146858183</v>
+        <v>0.3137582969655313</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.4894499490930571</v>
+        <v>0.6359631702979414</v>
       </c>
       <c r="H6">
-        <v>0.3905448851014484</v>
+        <v>0.7511250570522776</v>
       </c>
       <c r="I6">
-        <v>0.3465712510302623</v>
+        <v>0.5937747105028528</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.9065964610354342</v>
+        <v>0.2980468331535349</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8117518663722194</v>
+        <v>0.282641247658546</v>
       </c>
       <c r="C7">
-        <v>0.1758001029878216</v>
+        <v>0.05355687714019552</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.061093608971333</v>
+        <v>0.3289274379711742</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.4953517466304334</v>
+        <v>0.6355379509673185</v>
       </c>
       <c r="H7">
-        <v>0.3904413541962981</v>
+        <v>0.7492496184723336</v>
       </c>
       <c r="I7">
-        <v>0.3452585829613071</v>
+        <v>0.5918472139530166</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.9525519329509393</v>
+        <v>0.3116724936242008</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9852057481006682</v>
+        <v>0.3338447527399637</v>
       </c>
       <c r="C8">
-        <v>0.2136089112258617</v>
+        <v>0.0646724866894175</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.30672502852812</v>
+        <v>0.3960636951937886</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.5255768541269674</v>
+        <v>0.6349465244178134</v>
       </c>
       <c r="H8">
-        <v>0.3923371640832585</v>
+        <v>0.7419550828865908</v>
       </c>
       <c r="I8">
-        <v>0.3419553161446878</v>
+        <v>0.5842662155477676</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.156542955471451</v>
+        <v>0.3718182651463735</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.330136027262654</v>
+        <v>0.434437214403431</v>
       </c>
       <c r="C9">
-        <v>0.289676808905142</v>
+        <v>0.08639617459417082</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.812022113791457</v>
+        <v>0.5285616984483426</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.6026614122708622</v>
+        <v>0.6384623835381547</v>
       </c>
       <c r="H9">
-        <v>0.4057493422237712</v>
+        <v>0.7311968415709771</v>
       </c>
       <c r="I9">
-        <v>0.3457502402349988</v>
+        <v>0.5727485764559717</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.563233073509792</v>
+        <v>0.4898322340060872</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.588369167318234</v>
+        <v>0.5084556700172698</v>
       </c>
       <c r="C10">
-        <v>0.3474311711859741</v>
+        <v>0.1023207025986608</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.205061842782754</v>
+        <v>0.6265573754423315</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.6731236163198417</v>
+        <v>0.6439509584739369</v>
       </c>
       <c r="H10">
-        <v>0.4228333845084933</v>
+        <v>0.725473101226811</v>
       </c>
       <c r="I10">
-        <v>0.3562088096591296</v>
+        <v>0.5663519106988133</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.868642662057141</v>
+        <v>0.5765919757120628</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.707371931379612</v>
+        <v>0.5421541864637902</v>
       </c>
       <c r="C11">
-        <v>0.3742894091016069</v>
+        <v>0.1095595078413965</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.390544477694917</v>
+        <v>0.6713090427410719</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.7089354925325182</v>
+        <v>0.647090740721822</v>
       </c>
       <c r="H11">
-        <v>0.4325106217538774</v>
+        <v>0.7233467008295378</v>
       </c>
       <c r="I11">
-        <v>0.3629888422575007</v>
+        <v>0.563895562598077</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.009667919788228</v>
+        <v>0.6160767047601325</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.752700552110298</v>
+        <v>0.5549187638534079</v>
       </c>
       <c r="C12">
-        <v>0.3845612742316007</v>
+        <v>0.1123000273538253</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.461934156477014</v>
+        <v>0.6882824681144086</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.7231089057661819</v>
+        <v>0.6483731122692404</v>
       </c>
       <c r="H12">
-        <v>0.4364811809306701</v>
+        <v>0.7226104611102926</v>
       </c>
       <c r="I12">
-        <v>0.3658810696372115</v>
+        <v>0.5630310507164111</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.063432955078412</v>
+        <v>0.6310311338324652</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.742925673645146</v>
+        <v>0.5521695235019877</v>
       </c>
       <c r="C13">
-        <v>0.3823442461127513</v>
+        <v>0.1117098349841115</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.446504573519633</v>
+        <v>0.6846257058405172</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.7200279396050604</v>
+        <v>0.6480927613991128</v>
       </c>
       <c r="H13">
-        <v>0.4356118889914882</v>
+        <v>0.722765950094626</v>
       </c>
       <c r="I13">
-        <v>0.3652431470705366</v>
+        <v>0.5632143118593831</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.051836549433006</v>
+        <v>0.6278103233295269</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.711095561045056</v>
+        <v>0.5432042634148218</v>
       </c>
       <c r="C14">
-        <v>0.3751323470536079</v>
+        <v>0.109784984603408</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.396393484717734</v>
+        <v>0.6727049047819094</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.7100888347977445</v>
+        <v>0.6471943648351868</v>
       </c>
       <c r="H14">
-        <v>0.4328309521544185</v>
+        <v>0.7232847454952633</v>
       </c>
       <c r="I14">
-        <v>0.3632200693154175</v>
+        <v>0.5638231203727528</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.014083574289629</v>
+        <v>0.6173069665047706</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.691634607610752</v>
+        <v>0.5377132555698267</v>
       </c>
       <c r="C15">
-        <v>0.3707285785062027</v>
+        <v>0.1086058756370392</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.365855060948988</v>
+        <v>0.6654066402568048</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.7040828585052594</v>
+        <v>0.6466562629883867</v>
       </c>
       <c r="H15">
-        <v>0.4311684141030696</v>
+        <v>0.7236115162376819</v>
       </c>
       <c r="I15">
-        <v>0.362024249148611</v>
+        <v>0.5642045962460358</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.99100784320143</v>
+        <v>0.610873670398604</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.580626567551832</v>
+        <v>0.5062539197415958</v>
       </c>
       <c r="C16">
-        <v>0.3456891101675126</v>
+        <v>0.1018475314391196</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.193090279989107</v>
+        <v>0.6236364052578125</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.6708647930279454</v>
+        <v>0.6437587855223796</v>
       </c>
       <c r="H16">
-        <v>0.4222419461384561</v>
+        <v>0.7256217010259718</v>
       </c>
       <c r="I16">
-        <v>0.3558092257544061</v>
+        <v>0.5665216022705692</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.859473480303535</v>
+        <v>0.5740118977398367</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.512949064009916</v>
+        <v>0.4869614282214627</v>
       </c>
       <c r="C17">
-        <v>0.3304896069112715</v>
+        <v>0.09770021489109126</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.088943981924686</v>
+        <v>0.5980574793645559</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.6514975815436514</v>
+        <v>0.6421466335094976</v>
       </c>
       <c r="H17">
-        <v>0.4172754843126256</v>
+        <v>0.7269773870724805</v>
       </c>
       <c r="I17">
-        <v>0.3525374110389166</v>
+        <v>0.5680594799843348</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.779358481351551</v>
+        <v>0.5514027712237919</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.474163911052187</v>
+        <v>0.4758674656762594</v>
       </c>
       <c r="C18">
-        <v>0.3218012212592214</v>
+        <v>0.09531427857902486</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.029658319252619</v>
+        <v>0.5833613105617133</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.6407070424236991</v>
+        <v>0.6412798321435815</v>
       </c>
       <c r="H18">
-        <v>0.4145961458962546</v>
+        <v>0.7278020525784541</v>
       </c>
       <c r="I18">
-        <v>0.3508436496686471</v>
+        <v>0.5689866884105044</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.73347139222426</v>
+        <v>0.5384002301916837</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.461054892155204</v>
+        <v>0.4721116886341008</v>
       </c>
       <c r="C19">
-        <v>0.3188682682473143</v>
+        <v>0.09450635073397962</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.009685757793136</v>
+        <v>0.5783881518655392</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.6371114381742586</v>
+        <v>0.6409967045594698</v>
       </c>
       <c r="H19">
-        <v>0.4137184964242238</v>
+        <v>0.7280889733526124</v>
       </c>
       <c r="I19">
-        <v>0.350301507281074</v>
+        <v>0.569307939186757</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.717966213623384</v>
+        <v>0.5339980754563669</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.520138533747229</v>
+        <v>0.4890148827151393</v>
       </c>
       <c r="C20">
-        <v>0.3321019182328655</v>
+        <v>0.09814175576957496</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.099965436285586</v>
+        <v>0.600778713036064</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.6535226447415283</v>
+        <v>0.6423119850470584</v>
       </c>
       <c r="H20">
-        <v>0.4177856096952581</v>
+        <v>0.7268284214333249</v>
       </c>
       <c r="I20">
-        <v>0.3528660004493389</v>
+        <v>0.567891351770804</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.787866473789762</v>
+        <v>0.5538093831003152</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.720437265703737</v>
+        <v>0.5458374794744714</v>
       </c>
       <c r="C21">
-        <v>0.3772477620806285</v>
+        <v>0.1103503768188432</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.411079422868951</v>
+        <v>0.676205585233177</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.7129909586351175</v>
+        <v>0.6474557031974655</v>
       </c>
       <c r="H21">
-        <v>0.4336392015474075</v>
+        <v>0.7231304878483797</v>
       </c>
       <c r="I21">
-        <v>0.3638051907999369</v>
+        <v>0.5636425132328284</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.025162195458876</v>
+        <v>0.6203919918384599</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.852912630310158</v>
+        <v>0.5829956865332235</v>
       </c>
       <c r="C22">
-        <v>0.4073528644816804</v>
+        <v>0.118325628069357</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.62123135369886</v>
+        <v>0.7256594144817967</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.7554654953329702</v>
+        <v>0.6513622913150101</v>
       </c>
       <c r="H22">
-        <v>0.4458018424448511</v>
+        <v>0.7211159131950495</v>
       </c>
       <c r="I22">
-        <v>0.372866487492054</v>
+        <v>0.561248536940667</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.182391627653118</v>
+        <v>0.6639216521707851</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.782048301455802</v>
+        <v>0.563161769815764</v>
       </c>
       <c r="C23">
-        <v>0.3912240912790992</v>
+        <v>0.1140693962934449</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.508374810062222</v>
+        <v>0.6992498261539168</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.7324397403121168</v>
+        <v>0.6492271038103752</v>
       </c>
       <c r="H23">
-        <v>0.4391339577251472</v>
+        <v>0.722154212188812</v>
       </c>
       <c r="I23">
-        <v>0.3678430329792661</v>
+        <v>0.5624910680794812</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.098257090351524</v>
+        <v>0.6406877847053067</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.516887792969527</v>
+        <v>0.4880865235629699</v>
       </c>
       <c r="C24">
-        <v>0.3313728377686971</v>
+        <v>0.09794214009954771</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.094980814790972</v>
+        <v>0.5995484139147607</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.6526060477229407</v>
+        <v>0.6422370426380439</v>
       </c>
       <c r="H24">
-        <v>0.4175544363426695</v>
+        <v>0.7268956278189336</v>
       </c>
       <c r="I24">
-        <v>0.3527168644549761</v>
+        <v>0.5679672284240382</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.784019478886506</v>
+        <v>0.5527213671194602</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.236126925120402</v>
+        <v>0.4072045808032101</v>
       </c>
       <c r="C25">
-        <v>0.2688254614412813</v>
+        <v>0.0805263154156961</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.672089625377296</v>
+        <v>0.4926132651867761</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.5796131647738036</v>
+        <v>0.6370050121206248</v>
       </c>
       <c r="H25">
-        <v>0.4009551601113799</v>
+        <v>0.7337256793014149</v>
       </c>
       <c r="I25">
-        <v>0.3434872165328073</v>
+        <v>0.5755034410775899</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.452252018585199</v>
+        <v>0.4578976842566931</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_119/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_119/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.347730641930184</v>
+        <v>1.032463422135748</v>
       </c>
       <c r="C2">
-        <v>0.06767891441089091</v>
+        <v>0.2239603850839984</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4143064095259632</v>
+        <v>1.374633540282275</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.6351006585564392</v>
+        <v>0.534872150656696</v>
       </c>
       <c r="H2">
-        <v>0.7402179449673838</v>
+        <v>0.393462577394871</v>
       </c>
       <c r="I2">
-        <v>0.5824378794838729</v>
+        <v>0.3417081278793859</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.3881189099243443</v>
+        <v>1.212179785656616</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3074721832826981</v>
+        <v>0.8957204396348288</v>
       </c>
       <c r="C3">
-        <v>0.05895372407800892</v>
+        <v>0.1940672612593772</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3614587690521915</v>
+        <v>1.179289431924289</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.6350068731898375</v>
+        <v>0.5091897371893452</v>
       </c>
       <c r="H3">
-        <v>0.7455245927634166</v>
+        <v>0.3909006038682037</v>
       </c>
       <c r="I3">
-        <v>0.5879938798843796</v>
+        <v>0.3431686047778513</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3408481337984881</v>
+        <v>1.051261105897424</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2827769100592263</v>
+        <v>0.8122099527630553</v>
       </c>
       <c r="C4">
-        <v>0.05358639945231403</v>
+        <v>0.1758995776588534</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3291050374318303</v>
+        <v>1.061734756116849</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.6355336757560366</v>
+        <v>0.4954229728963924</v>
       </c>
       <c r="H4">
-        <v>0.7492282096347935</v>
+        <v>0.3904413766604193</v>
       </c>
       <c r="I4">
-        <v>0.5918251646278136</v>
+        <v>0.3452445279257184</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.311831940487906</v>
+        <v>0.9530902227836577</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2727195437841772</v>
+        <v>0.7782677176323887</v>
       </c>
       <c r="C5">
-        <v>0.05139655236725105</v>
+        <v>0.1685342562525705</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3159426302232475</v>
+        <v>1.014338181239353</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.6358944618867213</v>
+        <v>0.4902773994066365</v>
       </c>
       <c r="H5">
-        <v>0.7508491611921642</v>
+        <v>0.3905169521280243</v>
       </c>
       <c r="I5">
-        <v>0.5934916489649567</v>
+        <v>0.3463683727623525</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3000097636492853</v>
+        <v>0.913211536552069</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2710499046047801</v>
+        <v>0.7726363355938304</v>
       </c>
       <c r="C6">
-        <v>0.05103276892708664</v>
+        <v>0.1673133108361924</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3137582969655313</v>
+        <v>1.006496146858169</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.6359631702979414</v>
+        <v>0.4894499490930144</v>
       </c>
       <c r="H6">
-        <v>0.7511250570522776</v>
+        <v>0.3905448851014484</v>
       </c>
       <c r="I6">
-        <v>0.5937747105028528</v>
+        <v>0.3465712510302694</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2980468331535349</v>
+        <v>0.906596461035349</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.282641247658546</v>
+        <v>0.8117518663722194</v>
       </c>
       <c r="C7">
-        <v>0.05355687714019552</v>
+        <v>0.1758001029879068</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3289274379711742</v>
+        <v>1.061093608971333</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.6355379509673185</v>
+        <v>0.4953517466304618</v>
       </c>
       <c r="H7">
-        <v>0.7492496184723336</v>
+        <v>0.3904413541962839</v>
       </c>
       <c r="I7">
-        <v>0.5918472139530166</v>
+        <v>0.3452585829613177</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3116724936242008</v>
+        <v>0.9525519329507972</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3338447527399637</v>
+        <v>0.9852057481004977</v>
       </c>
       <c r="C8">
-        <v>0.0646724866894175</v>
+        <v>0.2136089112257764</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.3960636951937886</v>
+        <v>1.306725028528149</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.6349465244178134</v>
+        <v>0.5255768541269106</v>
       </c>
       <c r="H8">
-        <v>0.7419550828865908</v>
+        <v>0.3923371640832443</v>
       </c>
       <c r="I8">
-        <v>0.5842662155477676</v>
+        <v>0.3419553161446878</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3718182651463735</v>
+        <v>1.156542955471394</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.434437214403431</v>
+        <v>1.33013602726254</v>
       </c>
       <c r="C9">
-        <v>0.08639617459417082</v>
+        <v>0.2896768089050283</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5285616984483426</v>
+        <v>1.812022113791485</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.6384623835381547</v>
+        <v>0.6026614122708907</v>
       </c>
       <c r="H9">
-        <v>0.7311968415709771</v>
+        <v>0.4057493422236718</v>
       </c>
       <c r="I9">
-        <v>0.5727485764559717</v>
+        <v>0.3457502402349917</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.4898322340060872</v>
+        <v>1.563233073509821</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5084556700172698</v>
+        <v>1.588369167318177</v>
       </c>
       <c r="C10">
-        <v>0.1023207025986608</v>
+        <v>0.3474311711854341</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6265573754423315</v>
+        <v>2.205061842782754</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.6439509584739369</v>
+        <v>0.673123616319856</v>
       </c>
       <c r="H10">
-        <v>0.725473101226811</v>
+        <v>0.4228333845085928</v>
       </c>
       <c r="I10">
-        <v>0.5663519106988133</v>
+        <v>0.3562088096591225</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5765919757120628</v>
+        <v>1.868642662057141</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.5421541864637902</v>
+        <v>1.707371931379669</v>
       </c>
       <c r="C11">
-        <v>0.1095595078413965</v>
+        <v>0.3742894091017206</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6713090427410719</v>
+        <v>2.390544477694931</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.647090740721822</v>
+        <v>0.708935492532504</v>
       </c>
       <c r="H11">
-        <v>0.7233467008295378</v>
+        <v>0.4325106217539911</v>
       </c>
       <c r="I11">
-        <v>0.563895562598077</v>
+        <v>0.3629888422574936</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6160767047601325</v>
+        <v>2.009667919788285</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5549187638534079</v>
+        <v>1.752700552110525</v>
       </c>
       <c r="C12">
-        <v>0.1123000273538253</v>
+        <v>0.3845612742316007</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.6882824681144086</v>
+        <v>2.461934156477042</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.6483731122692404</v>
+        <v>0.7231089057660967</v>
       </c>
       <c r="H12">
-        <v>0.7226104611102926</v>
+        <v>0.4364811809306559</v>
       </c>
       <c r="I12">
-        <v>0.5630310507164111</v>
+        <v>0.3658810696372043</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6310311338324652</v>
+        <v>2.063432955078383</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5521695235019877</v>
+        <v>1.742925673645004</v>
       </c>
       <c r="C13">
-        <v>0.1117098349841115</v>
+        <v>0.3823442461125239</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.6846257058405172</v>
+        <v>2.446504573519633</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.6480927613991128</v>
+        <v>0.720027939605032</v>
       </c>
       <c r="H13">
-        <v>0.722765950094626</v>
+        <v>0.4356118889915166</v>
       </c>
       <c r="I13">
-        <v>0.5632143118593831</v>
+        <v>0.3652431470705437</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6278103233295269</v>
+        <v>2.051836549433148</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5432042634148218</v>
+        <v>1.711095561044914</v>
       </c>
       <c r="C14">
-        <v>0.109784984603408</v>
+        <v>0.3751323470535795</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6727049047819094</v>
+        <v>2.396393484717677</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.6471943648351868</v>
+        <v>0.7100888347978156</v>
       </c>
       <c r="H14">
-        <v>0.7232847454952633</v>
+        <v>0.4328309521544185</v>
       </c>
       <c r="I14">
-        <v>0.5638231203727528</v>
+        <v>0.3632200693154246</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6173069665047706</v>
+        <v>2.014083574289572</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5377132555698267</v>
+        <v>1.691634607610723</v>
       </c>
       <c r="C15">
-        <v>0.1086058756370392</v>
+        <v>0.3707285785064585</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6654066402568048</v>
+        <v>2.365855060948959</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.6466562629883867</v>
+        <v>0.7040828585052026</v>
       </c>
       <c r="H15">
-        <v>0.7236115162376819</v>
+        <v>0.4311684141029701</v>
       </c>
       <c r="I15">
-        <v>0.5642045962460358</v>
+        <v>0.3620242491486181</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.610873670398604</v>
+        <v>1.99100784320143</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5062539197415958</v>
+        <v>1.580626567552002</v>
       </c>
       <c r="C16">
-        <v>0.1018475314391196</v>
+        <v>0.3456891101678821</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6236364052578125</v>
+        <v>2.193090279989107</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.6437587855223796</v>
+        <v>0.6708647930278602</v>
       </c>
       <c r="H16">
-        <v>0.7256217010259718</v>
+        <v>0.4222419461384561</v>
       </c>
       <c r="I16">
-        <v>0.5665216022705692</v>
+        <v>0.3558092257543706</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5740118977398367</v>
+        <v>1.85947348030345</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4869614282214627</v>
+        <v>1.512949064010058</v>
       </c>
       <c r="C17">
-        <v>0.09770021489109126</v>
+        <v>0.3304896069117262</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.5980574793645559</v>
+        <v>2.0889439819247</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.6421466335094976</v>
+        <v>0.6514975815436514</v>
       </c>
       <c r="H17">
-        <v>0.7269773870724805</v>
+        <v>0.4172754843127535</v>
       </c>
       <c r="I17">
-        <v>0.5680594799843348</v>
+        <v>0.3525374110389095</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5514027712237919</v>
+        <v>1.779358481351522</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4758674656762594</v>
+        <v>1.474163911051988</v>
       </c>
       <c r="C18">
-        <v>0.09531427857902486</v>
+        <v>0.3218012212592498</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5833613105617133</v>
+        <v>2.029658319252633</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.6412798321435815</v>
+        <v>0.6407070424237702</v>
       </c>
       <c r="H18">
-        <v>0.7278020525784541</v>
+        <v>0.4145961458962546</v>
       </c>
       <c r="I18">
-        <v>0.5689866884105044</v>
+        <v>0.3508436496686684</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5384002301916837</v>
+        <v>1.733471392224232</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4721116886341008</v>
+        <v>1.461054892155005</v>
       </c>
       <c r="C19">
-        <v>0.09450635073397962</v>
+        <v>0.318868268247229</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5783881518655392</v>
+        <v>2.009685757793122</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.6409967045594698</v>
+        <v>0.6371114381743581</v>
       </c>
       <c r="H19">
-        <v>0.7280889733526124</v>
+        <v>0.4137184964243232</v>
       </c>
       <c r="I19">
-        <v>0.569307939186757</v>
+        <v>0.3503015072810669</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5339980754563669</v>
+        <v>1.717966213623384</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4890148827151393</v>
+        <v>1.52013853374703</v>
       </c>
       <c r="C20">
-        <v>0.09814175576957496</v>
+        <v>0.3321019182328939</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.600778713036064</v>
+        <v>2.099965436285615</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.6423119850470584</v>
+        <v>0.6535226447415141</v>
       </c>
       <c r="H20">
-        <v>0.7268284214333249</v>
+        <v>0.4177856096952439</v>
       </c>
       <c r="I20">
-        <v>0.567891351770804</v>
+        <v>0.3528660004493389</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5538093831003152</v>
+        <v>1.787866473789762</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5458374794744714</v>
+        <v>1.720437265703737</v>
       </c>
       <c r="C21">
-        <v>0.1103503768188432</v>
+        <v>0.3772477620807138</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.676205585233177</v>
+        <v>2.411079422868994</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.6474557031974655</v>
+        <v>0.7129909586351175</v>
       </c>
       <c r="H21">
-        <v>0.7231304878483797</v>
+        <v>0.4336392015473933</v>
       </c>
       <c r="I21">
-        <v>0.5636425132328284</v>
+        <v>0.3638051907999653</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.6203919918384599</v>
+        <v>2.025162195458904</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5829956865332235</v>
+        <v>1.852912630310186</v>
       </c>
       <c r="C22">
-        <v>0.118325628069357</v>
+        <v>0.4073528644818225</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7256594144817967</v>
+        <v>2.621231353698832</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.6513622913150101</v>
+        <v>0.7554654953329845</v>
       </c>
       <c r="H22">
-        <v>0.7211159131950495</v>
+        <v>0.4458018424449648</v>
       </c>
       <c r="I22">
-        <v>0.561248536940667</v>
+        <v>0.3728664874920753</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6639216521707851</v>
+        <v>2.18239162765326</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.563161769815764</v>
+        <v>1.782048301455745</v>
       </c>
       <c r="C23">
-        <v>0.1140693962934449</v>
+        <v>0.391224091279355</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.6992498261539168</v>
+        <v>2.50837481006225</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.6492271038103752</v>
+        <v>0.7324397403120599</v>
       </c>
       <c r="H23">
-        <v>0.722154212188812</v>
+        <v>0.4391339577251614</v>
       </c>
       <c r="I23">
-        <v>0.5624910680794812</v>
+        <v>0.3678430329792661</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6406877847053067</v>
+        <v>2.098257090351638</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4880865235629699</v>
+        <v>1.516887792969499</v>
       </c>
       <c r="C24">
-        <v>0.09794214009954771</v>
+        <v>0.3313728377686687</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.5995484139147607</v>
+        <v>2.094980814790986</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.6422370426380439</v>
+        <v>0.6526060477229549</v>
       </c>
       <c r="H24">
-        <v>0.7268956278189336</v>
+        <v>0.4175544363426695</v>
       </c>
       <c r="I24">
-        <v>0.5679672284240382</v>
+        <v>0.3527168644549903</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5527213671194602</v>
+        <v>1.784019478886449</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4072045808032101</v>
+        <v>1.236126925120431</v>
       </c>
       <c r="C25">
-        <v>0.0805263154156961</v>
+        <v>0.2688254614415229</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.4926132651867761</v>
+        <v>1.672089625377268</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.6370050121206248</v>
+        <v>0.5796131647737326</v>
       </c>
       <c r="H25">
-        <v>0.7337256793014149</v>
+        <v>0.4009551601113799</v>
       </c>
       <c r="I25">
-        <v>0.5755034410775899</v>
+        <v>0.3434872165328002</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4578976842566931</v>
+        <v>1.452252018585256</v>
       </c>
       <c r="L25">
         <v>0</v>
